--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1403.559571480663</v>
+        <v>246.8095716206934</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4790000915527344</v>
+        <v>0.3889999389648438</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.40657800453172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.40657800453172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1005.26999985997</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>355.48</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -791,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -813,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -896,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>34.31116002552194</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42.28226196994635</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.957912867326328</v>
+        <v>40.04208713267368</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,34 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>119.2360000000003</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>120.4220000000032</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="5">
@@ -1101,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>77.22300000000361</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1112,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>160.8689999859942</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="7">
@@ -1123,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>83.34900000000744</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>119.2359999999995</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="9">
@@ -1145,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>120.4220000000032</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1156,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>160.8689999859942</v>
+        <v>61.2</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19.23599999999954</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="3">
@@ -1214,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>20.42200000000321</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1225,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>60.86899998599421</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1283,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1294,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.624000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1305,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1316,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>15.975</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1368,23 +1318,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
